--- a/TestingResultsBinary.xlsx
+++ b/TestingResultsBinary.xlsx
@@ -112,7 +112,7 @@
   </sheetPr>
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
